--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed5/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.576</v>
+        <v>16.423</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.875999999999999</v>
+        <v>6.221</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.368</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.084000000000001</v>
+        <v>6.532999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.232</v>
+        <v>17.155</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.32</v>
+        <v>-21.464</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.564</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.915999999999999</v>
+        <v>5.944</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.478</v>
+        <v>-21.529</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.034</v>
+        <v>15.956</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.142</v>
+        <v>16.366</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.248</v>
+        <v>16.321</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.144</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.390000000000001</v>
+        <v>6.803</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.76</v>
+        <v>-21.575</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,12 +899,12 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.562</v>
+        <v>16.701</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.588</v>
+        <v>-21.517</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>17.036</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="29">
@@ -950,15 +950,15 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.84</v>
+        <v>16.293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.634</v>
+        <v>-21.313</v>
       </c>
       <c r="B31" t="n">
-        <v>7.178</v>
+        <v>6.462000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.902</v>
+        <v>-21.336</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.446</v>
+        <v>16.574</v>
       </c>
     </row>
     <row r="33">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.154000000000001</v>
+        <v>7.32</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.23</v>
+        <v>-20.972</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.428</v>
+        <v>7.32</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.942</v>
+        <v>-20.002</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>5.92</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.67</v>
+        <v>8.642999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.312</v>
+        <v>16.195</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.4</v>
+        <v>6.061</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.206</v>
+        <v>-21.264</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.83</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="48">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.23</v>
+        <v>6.013000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.072</v>
+        <v>-21.856</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.214</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.668</v>
+        <v>-21.522</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.582</v>
+        <v>5.332</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.164</v>
+        <v>16.586</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.514</v>
+        <v>16.311</v>
       </c>
     </row>
     <row r="63">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.623</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.656</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.57</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.932</v>
+        <v>-20.628</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>16.826</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.414</v>
+        <v>16.564</v>
       </c>
     </row>
     <row r="79">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.409999999999999</v>
+        <v>6.441</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.754</v>
+        <v>-20.15</v>
       </c>
       <c r="B83" t="n">
-        <v>6.196</v>
+        <v>7.111</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.674</v>
+        <v>16.962</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.93</v>
+        <v>-21.911</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.339</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.478</v>
+        <v>-21.508</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.278</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.188</v>
+        <v>17.262</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.138</v>
+        <v>-21.49</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.602</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.44</v>
+        <v>-20.938</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.517</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.005999999999998</v>
+        <v>7.153</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.419</v>
       </c>
     </row>
   </sheetData>
